--- a/yellow_pages_leads.xlsx
+++ b/yellow_pages_leads.xlsx
@@ -804,11 +804,6 @@
           <t>(917) 295-3948</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>256 E 9th St Brooklyn, NY 11218</t>
